--- a/Oct_2023.xlsx
+++ b/Oct_2023.xlsx
@@ -1160,19 +1160,25 @@
         <v>10</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>249.66</v>
+        <v>262.76</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>4.844</v>
+        <v>5.689</v>
       </c>
       <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
+      <c r="K21" s="4" t="n">
+        <v>145.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1574,23 +1580,23 @@
       <c r="K34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>AMT</t>
         </is>
       </c>
-      <c r="B35" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C35" s="6" t="n">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="4" t="n">
         <v>90.23</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="4" t="n">
         <v>36.364</v>
       </c>
       <c r="F35" s="4" t="n">
@@ -1598,7 +1604,7 @@
       </c>
       <c r="G35" s="4" t="n"/>
       <c r="H35" s="4" t="n"/>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="I35" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -2302,13 +2308,13 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>231.03</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>46.154</v>
+        <v>42.857</v>
       </c>
       <c r="F58" s="4" t="n">
         <v>2.278</v>
@@ -2323,14 +2329,18 @@
           <t>04/08</t>
         </is>
       </c>
-      <c r="I58" s="4" t="n"/>
+      <c r="I58" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="J58" s="4" t="inlineStr">
         <is>
           <t>08/08</t>
         </is>
       </c>
       <c r="K58" s="4" t="n">
-        <v>27.02</v>
+        <v>26.31</v>
       </c>
     </row>
     <row r="59">
@@ -2516,13 +2526,13 @@
       </c>
       <c r="B64" s="4" t="n"/>
       <c r="C64" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>40.71</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>20</v>
+        <v>16.667</v>
       </c>
       <c r="F64" s="4" t="n">
         <v>1.369</v>
@@ -2537,14 +2547,18 @@
           <t>07/09</t>
         </is>
       </c>
-      <c r="I64" s="4" t="n"/>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
           <t>12/09</t>
         </is>
       </c>
       <c r="K64" s="4" t="n">
-        <v>105.12</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="65">
@@ -2906,13 +2920,13 @@
         </is>
       </c>
       <c r="C76" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>30.31</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>10</v>
+        <v>9.090999999999999</v>
       </c>
       <c r="F76" s="4" t="n">
         <v>1.133</v>
@@ -2923,30 +2937,34 @@
         </is>
       </c>
       <c r="H76" s="4" t="n"/>
-      <c r="I76" s="4" t="n"/>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
       <c r="J76" s="4" t="n"/>
       <c r="K76" s="4" t="n">
-        <v>56.2</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="B77" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C77" s="6" t="n">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D77" s="6" t="n">
+      <c r="D77" s="4" t="n">
         <v>286.12</v>
       </c>
-      <c r="E77" s="6" t="n">
+      <c r="E77" s="4" t="n">
         <v>45.455</v>
       </c>
       <c r="F77" s="4" t="n">
@@ -2958,7 +2976,7 @@
         </is>
       </c>
       <c r="H77" s="4" t="n"/>
-      <c r="I77" s="6" t="inlineStr">
+      <c r="I77" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -3188,23 +3206,23 @@
       <c r="K84" s="4" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="inlineStr">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>CCI</t>
         </is>
       </c>
-      <c r="B85" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C85" s="6" t="n">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D85" s="6" t="n">
+      <c r="D85" s="4" t="n">
         <v>61.58</v>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="4" t="n">
         <v>44.444</v>
       </c>
       <c r="F85" s="4" t="n">
@@ -3216,7 +3234,7 @@
         </is>
       </c>
       <c r="H85" s="4" t="n"/>
-      <c r="I85" s="6" t="inlineStr">
+      <c r="I85" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -3506,13 +3524,13 @@
         </is>
       </c>
       <c r="C94" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>38.93</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>37.5</v>
+        <v>33.333</v>
       </c>
       <c r="F94" s="4" t="n">
         <v>1.445</v>
@@ -3525,12 +3543,12 @@
       <c r="H94" s="4" t="n"/>
       <c r="I94" s="4" t="inlineStr">
         <is>
-          <t>07/09</t>
+          <t>30/10</t>
         </is>
       </c>
       <c r="J94" s="4" t="n"/>
       <c r="K94" s="4" t="n">
-        <v>89.12</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="95">
@@ -3748,13 +3766,13 @@
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>187.86</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>62.5</v>
+        <v>55.556</v>
       </c>
       <c r="F102" s="4" t="n">
         <v>3.621</v>
@@ -3765,10 +3783,14 @@
         </is>
       </c>
       <c r="H102" s="4" t="n"/>
-      <c r="I102" s="4" t="n"/>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
       <c r="J102" s="4" t="n"/>
       <c r="K102" s="4" t="n">
-        <v>44.47</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="103">
@@ -3797,13 +3819,13 @@
       <c r="G103" s="4" t="n"/>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>19/09</t>
+          <t>20/10</t>
         </is>
       </c>
       <c r="I103" s="4" t="n"/>
       <c r="J103" s="4" t="n"/>
       <c r="K103" s="4" t="n">
-        <v>206.55</v>
+        <v>214.12</v>
       </c>
     </row>
     <row r="104">
@@ -4049,38 +4071,42 @@
       <c r="K111" s="4" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="inlineStr">
+      <c r="A112" s="6" t="inlineStr">
         <is>
           <t>COST</t>
         </is>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="B112" s="6" t="inlineStr">
         <is>
           <t>.SPX.NDX</t>
         </is>
       </c>
-      <c r="C112" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D112" s="4" t="n">
-        <v>57.69</v>
-      </c>
-      <c r="E112" s="4" t="n">
-        <v>33.333</v>
+      <c r="C112" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D112" s="6" t="n">
+        <v>42.37</v>
+      </c>
+      <c r="E112" s="6" t="n">
+        <v>30.769</v>
       </c>
       <c r="F112" s="4" t="n">
-        <v>1.381</v>
+        <v>1.254</v>
       </c>
       <c r="G112" s="4" t="n"/>
-      <c r="H112" s="4" t="n"/>
+      <c r="H112" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="I112" s="4" t="n"/>
-      <c r="J112" s="4" t="inlineStr">
-        <is>
-          <t>10/08</t>
+      <c r="J112" s="6" t="inlineStr">
+        <is>
+          <t>31/10</t>
         </is>
       </c>
       <c r="K112" s="4" t="n">
-        <v>559.7</v>
+        <v>554.88</v>
       </c>
     </row>
     <row r="113">
@@ -4919,16 +4945,16 @@
         </is>
       </c>
       <c r="C139" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>90.52</v>
+        <v>60.04</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>25</v>
+        <v>23.077</v>
       </c>
       <c r="F139" s="4" t="n">
-        <v>1.426</v>
+        <v>1.247</v>
       </c>
       <c r="G139" s="4" t="inlineStr">
         <is>
@@ -4938,32 +4964,32 @@
       <c r="H139" s="4" t="n"/>
       <c r="I139" s="4" t="inlineStr">
         <is>
-          <t>20/09</t>
+          <t>20/10</t>
         </is>
       </c>
       <c r="J139" s="4" t="n"/>
       <c r="K139" s="4" t="n">
-        <v>81.94</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="6" t="inlineStr">
+      <c r="A140" s="4" t="inlineStr">
         <is>
           <t>DLR</t>
         </is>
       </c>
-      <c r="B140" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C140" s="6" t="n">
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="D140" s="6" t="n">
+      <c r="D140" s="4" t="n">
         <v>35.26</v>
       </c>
-      <c r="E140" s="6" t="n">
+      <c r="E140" s="4" t="n">
         <v>46.154</v>
       </c>
       <c r="F140" s="4" t="n">
@@ -4975,7 +5001,7 @@
         </is>
       </c>
       <c r="H140" s="4" t="n"/>
-      <c r="I140" s="6" t="inlineStr">
+      <c r="I140" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -5328,15 +5354,19 @@
         <v>16</v>
       </c>
       <c r="D151" s="4" t="n">
-        <v>105.058</v>
+        <v>224.518</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>25</v>
+        <v>31.25</v>
       </c>
       <c r="F151" s="4" t="n">
-        <v>1.312</v>
-      </c>
-      <c r="G151" s="4" t="n"/>
+        <v>1.632</v>
+      </c>
+      <c r="G151" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="H151" s="4" t="inlineStr">
         <is>
           <t>23/07</t>
@@ -5349,7 +5379,7 @@
         </is>
       </c>
       <c r="K151" s="4" t="n">
-        <v>113.27</v>
+        <v>85.97</v>
       </c>
     </row>
     <row r="152">
@@ -5566,29 +5596,33 @@
       <c r="K158" s="4" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="inlineStr">
+      <c r="A159" s="6" t="inlineStr">
         <is>
           <t>EMN</t>
         </is>
       </c>
-      <c r="B159" s="4" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C159" s="4" t="n">
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D159" s="4" t="n">
-        <v>248.03</v>
-      </c>
-      <c r="E159" s="4" t="n">
+      <c r="D159" s="6" t="n">
+        <v>247.07</v>
+      </c>
+      <c r="E159" s="6" t="n">
         <v>53.846</v>
       </c>
       <c r="F159" s="4" t="n">
-        <v>3.281</v>
-      </c>
-      <c r="G159" s="4" t="n"/>
+        <v>3.253</v>
+      </c>
+      <c r="G159" s="6" t="inlineStr">
+        <is>
+          <t>31/10</t>
+        </is>
+      </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
           <t>01/08</t>
@@ -5601,7 +5635,7 @@
         </is>
       </c>
       <c r="K159" s="4" t="n">
-        <v>85.66</v>
+        <v>75.19</v>
       </c>
     </row>
     <row r="160">
@@ -5913,23 +5947,23 @@
       <c r="K169" s="4" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="6" t="inlineStr">
+      <c r="A170" s="4" t="inlineStr">
         <is>
           <t>EVRG</t>
         </is>
       </c>
-      <c r="B170" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C170" s="6" t="n">
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C170" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D170" s="6" t="n">
+      <c r="D170" s="4" t="n">
         <v>296.91</v>
       </c>
-      <c r="E170" s="6" t="n">
+      <c r="E170" s="4" t="n">
         <v>33.333</v>
       </c>
       <c r="F170" s="4" t="n">
@@ -5941,7 +5975,7 @@
           <t>28/07</t>
         </is>
       </c>
-      <c r="I170" s="6" t="inlineStr">
+      <c r="I170" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -6899,18 +6933,18 @@
         <v>8</v>
       </c>
       <c r="D200" s="4" t="n">
-        <v>153.953</v>
+        <v>123.473</v>
       </c>
       <c r="E200" s="4" t="n">
         <v>50</v>
       </c>
       <c r="F200" s="4" t="n">
-        <v>4.142</v>
+        <v>2.554</v>
       </c>
       <c r="G200" s="4" t="n"/>
       <c r="H200" s="4" t="inlineStr">
         <is>
-          <t>22/09</t>
+          <t>21/10</t>
         </is>
       </c>
       <c r="I200" s="4" t="n"/>
@@ -6920,34 +6954,34 @@
         </is>
       </c>
       <c r="K200" s="4" t="n">
-        <v>135.17</v>
+        <v>136.74</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="6" t="inlineStr">
+      <c r="A201" s="4" t="inlineStr">
         <is>
           <t>GOOGL</t>
         </is>
       </c>
-      <c r="B201" s="6" t="inlineStr">
+      <c r="B201" s="4" t="inlineStr">
         <is>
           <t>.SPX.NDX</t>
         </is>
       </c>
-      <c r="C201" s="6" t="n">
+      <c r="C201" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D201" s="6" t="n">
+      <c r="D201" s="4" t="n">
         <v>263.024</v>
       </c>
-      <c r="E201" s="6" t="n">
+      <c r="E201" s="4" t="n">
         <v>75</v>
       </c>
       <c r="F201" s="4" t="n">
         <v>6.32</v>
       </c>
       <c r="G201" s="4" t="n"/>
-      <c r="H201" s="6" t="inlineStr">
+      <c r="H201" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -7712,22 +7746,28 @@
         </is>
       </c>
       <c r="C226" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D226" s="4" t="n">
-        <v>110.833</v>
+        <v>113.242</v>
       </c>
       <c r="E226" s="4" t="n">
-        <v>36.364</v>
+        <v>40</v>
       </c>
       <c r="F226" s="4" t="n">
-        <v>2.582</v>
-      </c>
-      <c r="G226" s="4" t="n"/>
+        <v>2.674</v>
+      </c>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t>30/10</t>
+        </is>
+      </c>
       <c r="H226" s="4" t="n"/>
       <c r="I226" s="4" t="n"/>
       <c r="J226" s="4" t="n"/>
-      <c r="K226" s="4" t="n"/>
+      <c r="K226" s="4" t="n">
+        <v>142.52</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
@@ -7952,7 +7992,11 @@
       <c r="F233" s="4" t="n">
         <v>1.979</v>
       </c>
-      <c r="G233" s="4" t="n"/>
+      <c r="G233" s="4" t="inlineStr">
+        <is>
+          <t>30/10</t>
+        </is>
+      </c>
       <c r="H233" s="4" t="inlineStr">
         <is>
           <t>16/09</t>
@@ -7961,7 +8005,7 @@
       <c r="I233" s="4" t="n"/>
       <c r="J233" s="4" t="n"/>
       <c r="K233" s="4" t="n">
-        <v>37.88</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="234">
@@ -9547,22 +9591,28 @@
         </is>
       </c>
       <c r="C285" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D285" s="4" t="n">
         <v>62.1</v>
       </c>
       <c r="E285" s="4" t="n">
-        <v>44.444</v>
+        <v>40</v>
       </c>
       <c r="F285" s="4" t="n">
         <v>1.279</v>
       </c>
       <c r="G285" s="4" t="n"/>
       <c r="H285" s="4" t="n"/>
-      <c r="I285" s="4" t="n"/>
+      <c r="I285" s="4" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
       <c r="J285" s="4" t="n"/>
-      <c r="K285" s="4" t="n"/>
+      <c r="K285" s="4" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="4" t="inlineStr">
@@ -10159,13 +10209,13 @@
         </is>
       </c>
       <c r="C305" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D305" s="4" t="n">
         <v>101.13</v>
       </c>
       <c r="E305" s="4" t="n">
-        <v>45.455</v>
+        <v>41.667</v>
       </c>
       <c r="F305" s="4" t="n">
         <v>1.923</v>
@@ -10178,12 +10228,12 @@
       <c r="H305" s="4" t="n"/>
       <c r="I305" s="4" t="inlineStr">
         <is>
-          <t>07/09</t>
+          <t>20/10</t>
         </is>
       </c>
       <c r="J305" s="4" t="n"/>
       <c r="K305" s="4" t="n">
-        <v>42.7</v>
+        <v>42.61</v>
       </c>
     </row>
     <row r="306">
@@ -10309,23 +10359,23 @@
       <c r="K309" s="4" t="n"/>
     </row>
     <row r="310">
-      <c r="A310" s="6" t="inlineStr">
+      <c r="A310" s="4" t="inlineStr">
         <is>
           <t>MRK</t>
         </is>
       </c>
-      <c r="B310" s="6" t="inlineStr">
+      <c r="B310" s="4" t="inlineStr">
         <is>
           <t>.DJI.SPX</t>
         </is>
       </c>
-      <c r="C310" s="6" t="n">
+      <c r="C310" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D310" s="6" t="n">
+      <c r="D310" s="4" t="n">
         <v>169.535</v>
       </c>
-      <c r="E310" s="6" t="n">
+      <c r="E310" s="4" t="n">
         <v>44.444</v>
       </c>
       <c r="F310" s="4" t="n">
@@ -10337,7 +10387,7 @@
         </is>
       </c>
       <c r="H310" s="4" t="n"/>
-      <c r="I310" s="6" t="inlineStr">
+      <c r="I310" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -10768,13 +10818,13 @@
         </is>
       </c>
       <c r="C324" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D324" s="4" t="n">
         <v>40.85</v>
       </c>
       <c r="E324" s="4" t="n">
-        <v>33.333</v>
+        <v>30.769</v>
       </c>
       <c r="F324" s="4" t="n">
         <v>1.21</v>
@@ -10785,10 +10835,14 @@
         </is>
       </c>
       <c r="H324" s="4" t="n"/>
-      <c r="I324" s="4" t="n"/>
+      <c r="I324" s="4" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
       <c r="J324" s="4" t="n"/>
       <c r="K324" s="4" t="n">
-        <v>54.49</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="325">
@@ -10879,38 +10933,46 @@
       <c r="K327" s="4" t="n"/>
     </row>
     <row r="328">
-      <c r="A328" s="4" t="inlineStr">
+      <c r="A328" s="6" t="inlineStr">
         <is>
           <t>NKE</t>
         </is>
       </c>
-      <c r="B328" s="4" t="inlineStr">
+      <c r="B328" s="6" t="inlineStr">
         <is>
           <t>.DJI.SPX</t>
         </is>
       </c>
-      <c r="C328" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D328" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="E328" s="4" t="n">
-        <v>33.333</v>
+      <c r="C328" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D328" s="6" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="E328" s="6" t="n">
+        <v>36.364</v>
       </c>
       <c r="F328" s="4" t="n">
-        <v>1.016</v>
+        <v>1.335</v>
       </c>
       <c r="G328" s="4" t="inlineStr">
         <is>
           <t>30/08</t>
         </is>
       </c>
-      <c r="H328" s="4" t="n"/>
+      <c r="H328" s="4" t="inlineStr">
+        <is>
+          <t>30/10</t>
+        </is>
+      </c>
       <c r="I328" s="4" t="n"/>
-      <c r="J328" s="4" t="n"/>
+      <c r="J328" s="6" t="inlineStr">
+        <is>
+          <t>31/10</t>
+        </is>
+      </c>
       <c r="K328" s="4" t="n">
-        <v>101.77</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="329">
@@ -11118,33 +11180,39 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="4" t="inlineStr">
+      <c r="A335" s="6" t="inlineStr">
         <is>
           <t>NUE</t>
         </is>
       </c>
-      <c r="B335" s="4" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C335" s="4" t="n">
+      <c r="B335" s="6" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C335" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D335" s="4" t="n">
+      <c r="D335" s="6" t="n">
         <v>54.99</v>
       </c>
-      <c r="E335" s="4" t="n">
+      <c r="E335" s="6" t="n">
         <v>33.333</v>
       </c>
       <c r="F335" s="4" t="n">
         <v>1.219</v>
       </c>
-      <c r="G335" s="4" t="n"/>
+      <c r="G335" s="6" t="inlineStr">
+        <is>
+          <t>31/10</t>
+        </is>
+      </c>
       <c r="H335" s="4" t="n"/>
       <c r="I335" s="4" t="n"/>
       <c r="J335" s="4" t="n"/>
-      <c r="K335" s="4" t="n"/>
+      <c r="K335" s="4" t="n">
+        <v>148.95</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="4" t="inlineStr">
@@ -11624,13 +11692,13 @@
         <v>9</v>
       </c>
       <c r="D351" s="4" t="n">
-        <v>765.02</v>
+        <v>783.86</v>
       </c>
       <c r="E351" s="4" t="n">
-        <v>77.77800000000001</v>
+        <v>88.889</v>
       </c>
       <c r="F351" s="4" t="n">
-        <v>17.97</v>
+        <v>18.388</v>
       </c>
       <c r="G351" s="4" t="inlineStr">
         <is>
@@ -11639,7 +11707,7 @@
       </c>
       <c r="H351" s="4" t="inlineStr">
         <is>
-          <t>19/09</t>
+          <t>21/10</t>
         </is>
       </c>
       <c r="I351" s="4" t="n"/>
@@ -11649,7 +11717,7 @@
         </is>
       </c>
       <c r="K351" s="4" t="n">
-        <v>235.18</v>
+        <v>243.1</v>
       </c>
     </row>
     <row r="352">
@@ -11699,13 +11767,13 @@
         </is>
       </c>
       <c r="C353" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D353" s="4" t="n">
         <v>28.44</v>
       </c>
       <c r="E353" s="4" t="n">
-        <v>38.462</v>
+        <v>35.714</v>
       </c>
       <c r="F353" s="4" t="n">
         <v>1.149</v>
@@ -11716,10 +11784,14 @@
         </is>
       </c>
       <c r="H353" s="4" t="n"/>
-      <c r="I353" s="4" t="n"/>
+      <c r="I353" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="J353" s="4" t="n"/>
       <c r="K353" s="4" t="n">
-        <v>115.33</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354">
@@ -11981,13 +12053,13 @@
         </is>
       </c>
       <c r="C361" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D361" s="4" t="n">
         <v>288.17</v>
       </c>
       <c r="E361" s="4" t="n">
-        <v>77.77800000000001</v>
+        <v>70</v>
       </c>
       <c r="F361" s="4" t="n">
         <v>10.128</v>
@@ -11998,10 +12070,14 @@
         </is>
       </c>
       <c r="H361" s="4" t="n"/>
-      <c r="I361" s="4" t="n"/>
+      <c r="I361" s="4" t="inlineStr">
+        <is>
+          <t>30/10</t>
+        </is>
+      </c>
       <c r="J361" s="4" t="n"/>
       <c r="K361" s="4" t="n">
-        <v>146.26</v>
+        <v>147.16</v>
       </c>
     </row>
     <row r="362">
@@ -12408,23 +12484,23 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="6" t="inlineStr">
+      <c r="A375" s="4" t="inlineStr">
         <is>
           <t>PSA</t>
         </is>
       </c>
-      <c r="B375" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C375" s="6" t="n">
+      <c r="B375" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C375" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D375" s="6" t="n">
+      <c r="D375" s="4" t="n">
         <v>235.77</v>
       </c>
-      <c r="E375" s="6" t="n">
+      <c r="E375" s="4" t="n">
         <v>40</v>
       </c>
       <c r="F375" s="4" t="n">
@@ -12436,7 +12512,7 @@
         </is>
       </c>
       <c r="H375" s="4" t="n"/>
-      <c r="I375" s="6" t="inlineStr">
+      <c r="I375" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -13084,23 +13160,23 @@
       <c r="K396" s="4" t="n"/>
     </row>
     <row r="397">
-      <c r="A397" s="6" t="inlineStr">
+      <c r="A397" s="4" t="inlineStr">
         <is>
           <t>SBAC</t>
         </is>
       </c>
-      <c r="B397" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C397" s="6" t="n">
+      <c r="B397" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C397" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D397" s="6" t="n">
+      <c r="D397" s="4" t="n">
         <v>48.77</v>
       </c>
-      <c r="E397" s="6" t="n">
+      <c r="E397" s="4" t="n">
         <v>45.455</v>
       </c>
       <c r="F397" s="4" t="n">
@@ -13112,7 +13188,7 @@
         </is>
       </c>
       <c r="H397" s="4" t="n"/>
-      <c r="I397" s="6" t="inlineStr">
+      <c r="I397" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -13405,22 +13481,28 @@
         </is>
       </c>
       <c r="C407" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D407" s="4" t="n">
-        <v>158.86</v>
+        <v>141.29</v>
       </c>
       <c r="E407" s="4" t="n">
-        <v>36.364</v>
+        <v>30</v>
       </c>
       <c r="F407" s="4" t="n">
-        <v>1.729</v>
+        <v>1.649</v>
       </c>
       <c r="G407" s="4" t="n"/>
-      <c r="H407" s="4" t="n"/>
+      <c r="H407" s="4" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
       <c r="I407" s="4" t="n"/>
       <c r="J407" s="4" t="n"/>
-      <c r="K407" s="4" t="n"/>
+      <c r="K407" s="4" t="n">
+        <v>482.37</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="4" t="inlineStr">
@@ -13463,13 +13545,13 @@
         </is>
       </c>
       <c r="C409" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D409" s="4" t="n">
         <v>109.92</v>
       </c>
       <c r="E409" s="4" t="n">
-        <v>35.714</v>
+        <v>33.333</v>
       </c>
       <c r="F409" s="4" t="n">
         <v>1.404</v>
@@ -13486,7 +13568,7 @@
       </c>
       <c r="I409" s="4" t="inlineStr">
         <is>
-          <t>19/09</t>
+          <t>20/10</t>
         </is>
       </c>
       <c r="J409" s="4" t="inlineStr">
@@ -13495,7 +13577,7 @@
         </is>
       </c>
       <c r="K409" s="4" t="n">
-        <v>108.33</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="410">
@@ -14753,23 +14835,23 @@
       <c r="K451" s="4" t="n"/>
     </row>
     <row r="452">
-      <c r="A452" s="6" t="inlineStr">
+      <c r="A452" s="4" t="inlineStr">
         <is>
           <t>UNP</t>
         </is>
       </c>
-      <c r="B452" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C452" s="6" t="n">
+      <c r="B452" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C452" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D452" s="6" t="n">
+      <c r="D452" s="4" t="n">
         <v>150.38</v>
       </c>
-      <c r="E452" s="6" t="n">
+      <c r="E452" s="4" t="n">
         <v>30</v>
       </c>
       <c r="F452" s="4" t="n">
@@ -14781,7 +14863,7 @@
         </is>
       </c>
       <c r="H452" s="4" t="n"/>
-      <c r="I452" s="6" t="inlineStr">
+      <c r="I452" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -15083,16 +15165,20 @@
         <v>12</v>
       </c>
       <c r="D462" s="4" t="n">
-        <v>13.75</v>
+        <v>39.59</v>
       </c>
       <c r="E462" s="4" t="n">
         <v>41.667</v>
       </c>
       <c r="F462" s="4" t="n">
-        <v>1.121</v>
+        <v>1.449</v>
       </c>
       <c r="G462" s="4" t="n"/>
-      <c r="H462" s="4" t="n"/>
+      <c r="H462" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="I462" s="4" t="n"/>
       <c r="J462" s="4" t="inlineStr">
         <is>
@@ -15100,7 +15186,7 @@
         </is>
       </c>
       <c r="K462" s="4" t="n">
-        <v>358.4</v>
+        <v>361.86</v>
       </c>
     </row>
     <row r="463">
@@ -15470,13 +15556,13 @@
         </is>
       </c>
       <c r="C474" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D474" s="4" t="n">
         <v>113.8</v>
       </c>
       <c r="E474" s="4" t="n">
-        <v>42.857</v>
+        <v>37.5</v>
       </c>
       <c r="F474" s="4" t="n">
         <v>1.809</v>
@@ -15487,10 +15573,14 @@
         </is>
       </c>
       <c r="H474" s="4" t="n"/>
-      <c r="I474" s="4" t="n"/>
+      <c r="I474" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="J474" s="4" t="n"/>
       <c r="K474" s="4" t="n">
-        <v>39.82</v>
+        <v>40.27</v>
       </c>
     </row>
     <row r="475">
@@ -15684,23 +15774,23 @@
       <c r="K480" s="4" t="n"/>
     </row>
     <row r="481">
-      <c r="A481" s="6" t="inlineStr">
+      <c r="A481" s="4" t="inlineStr">
         <is>
           <t>WST</t>
         </is>
       </c>
-      <c r="B481" s="6" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C481" s="6" t="n">
+      <c r="B481" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C481" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D481" s="6" t="n">
+      <c r="D481" s="4" t="n">
         <v>163.23</v>
       </c>
-      <c r="E481" s="6" t="n">
+      <c r="E481" s="4" t="n">
         <v>37.5</v>
       </c>
       <c r="F481" s="4" t="n">
@@ -15716,7 +15806,7 @@
           <t>18/08</t>
         </is>
       </c>
-      <c r="I481" s="6" t="inlineStr">
+      <c r="I481" s="4" t="inlineStr">
         <is>
           <t>19/10</t>
         </is>
@@ -16075,10 +16165,16 @@
         <v>2.305</v>
       </c>
       <c r="G493" s="4" t="n"/>
-      <c r="H493" s="4" t="n"/>
+      <c r="H493" s="4" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
       <c r="I493" s="4" t="n"/>
       <c r="J493" s="4" t="n"/>
-      <c r="K493" s="4" t="n"/>
+      <c r="K493" s="4" t="n">
+        <v>162.19</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="4" t="inlineStr">
